--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-754372.7651461377</v>
+        <v>-756260.3466625395</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>298.9064775016659</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>172.5692004698268</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.6795171151347</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>113.7145621736549</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.86366782337</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>355.2566970572772</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>110.2505781800126</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>34.08346683966615</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>141.4106407312802</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>322.1370369626026</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>64.99586874835499</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>216.5532452926076</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.2856698238053</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>42.6563652621686</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1822,10 +1822,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>127.9288390426631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>277.2719875498825</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>116.2748636518114</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>239.2368488138915</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>206.8064269214862</v>
       </c>
       <c r="U22" t="n">
-        <v>245.5591000916435</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.843519215192</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.75180619639609</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>1.797245289947071</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965516</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801219</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437405</v>
+        <v>90.21779139437426</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>43.51697242966623</v>
+        <v>93.71057173897914</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>55.215988835715</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.7610957752358</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>73.1933710939383</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789589</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224528</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1267.312047941846</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C2" t="n">
-        <v>1267.312047941846</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>909.0463493350958</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>523.2580967368515</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2522.836767311327</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2304.202100283389</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2304.202100283389</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2304.202100283389</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1951.433445013275</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>1577.967686752195</v>
       </c>
       <c r="Y2" t="n">
-        <v>1267.312047941846</v>
+        <v>1187.828354776384</v>
       </c>
     </row>
     <row r="3">
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>394.4025473335336</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C4" t="n">
-        <v>394.4025473335336</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D4" t="n">
-        <v>394.4025473335336</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511404</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4522,16 +4522,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084171</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1421.217123115521</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C5" t="n">
-        <v>1421.217123115521</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D5" t="n">
-        <v>1421.217123115521</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>1035.428870517276</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>624.4429657276687</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.6828813766</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1421.217123115521</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1421.217123115521</v>
+        <v>1964.838184214438</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>373.0594214943678</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>373.0594214943678</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>373.0594214943678</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>373.0594214943678</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>373.0594214943678</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>373.0594214943678</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y7" t="n">
-        <v>373.0594214943678</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.353113282533</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
         <v>1210.087414675782</v>
@@ -4796,13 +4796,13 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1941.818871543613</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1941.818871543613</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1568.353113282533</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.353113282533</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.0594214943678</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="C10" t="n">
-        <v>373.0594214943678</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>662.4765915313284</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>373.0594214943678</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>373.0594214943678</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="Y10" t="n">
-        <v>373.0594214943678</v>
+        <v>509.3883323957195</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5127,7 +5127,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>402.2569289289492</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>402.2569289289492</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>402.2569289289492</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>720.4504516500521</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>492.4609007520347</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y13" t="n">
-        <v>271.6683216085046</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,16 +5261,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5282,13 +5282,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.1598612984387</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>394.223678370532</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5449,7 +5449,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5470,16 +5470,16 @@
         <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>1080.566582233417</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W16" t="n">
-        <v>791.1494121964561</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X16" t="n">
-        <v>563.1598612984387</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.1598612984387</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>662.0910440466406</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C19" t="n">
-        <v>544.6416868225887</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D19" t="n">
-        <v>394.5250474102529</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,7 +5674,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V19" t="n">
-        <v>1133.156678913841</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="W19" t="n">
-        <v>843.7395088768803</v>
+        <v>744.348833920672</v>
       </c>
       <c r="X19" t="n">
-        <v>843.7395088768803</v>
+        <v>744.348833920672</v>
       </c>
       <c r="Y19" t="n">
-        <v>843.7395088768803</v>
+        <v>744.3488339206721</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473454</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U22" t="n">
-        <v>1050.95676543139</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>796.2722772255034</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>506.8551071885429</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8655562905255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,25 +6163,25 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6227,22 +6227,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>376.9270045185177</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>376.9270045185177</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6385,19 +6385,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609665</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609665</v>
+        <v>820.5263570570731</v>
       </c>
       <c r="W28" t="n">
-        <v>696.585046524006</v>
+        <v>820.5263570570731</v>
       </c>
       <c r="X28" t="n">
-        <v>468.5954956259885</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y28" t="n">
-        <v>468.5954956259885</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110237</v>
+        <v>656.5190452905606</v>
       </c>
       <c r="C31" t="n">
-        <v>494.8466681110237</v>
+        <v>543.3437276440244</v>
       </c>
       <c r="D31" t="n">
-        <v>400.4908939800589</v>
+        <v>543.3437276440244</v>
       </c>
       <c r="E31" t="n">
-        <v>400.4908939800589</v>
+        <v>451.191499343002</v>
       </c>
       <c r="F31" t="n">
-        <v>309.3618117635195</v>
+        <v>360.0624171264623</v>
       </c>
       <c r="G31" t="n">
-        <v>196.947355364711</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323875</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386982</v>
+        <v>902.6804289818925</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220518</v>
+        <v>730.4517433652458</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598926</v>
+        <v>656.5190452905606</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,19 +6710,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,13 +6862,13 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6883,7 +6883,7 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6914,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7111,19 +7111,19 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7257,16 +7257,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,25 +7345,25 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,40 +7400,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7585,10 +7585,10 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7795,13 +7795,13 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7840,13 +7840,13 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814623</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.546310358132</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>123.837203201209</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>124.2088042811649</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>9.251010786708548</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>50.97195744681642</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>47.28614952269954</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>14.74113413690305</v>
       </c>
       <c r="U22" t="n">
-        <v>40.67825230693416</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338589</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338534</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.08017398554121</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>223.9124100990901</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965537</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801197</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>50.1935993093127</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523561</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>90.18802562959949</v>
       </c>
     </row>
     <row r="32">
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -26329,7 +26329,7 @@
         <v>195514.5298688544</v>
       </c>
       <c r="H2" t="n">
-        <v>195514.5298688543</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="I2" t="n">
         <v>195514.5298688544</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086676</v>
+        <v>10342.90680086695</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284561</v>
       </c>
     </row>
     <row r="4">
@@ -26427,7 +26427,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26439,13 +26439,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.2301010673</v>
+        <v>40339.23010106722</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
         <v>44593.39482819119</v>
@@ -26454,7 +26454,7 @@
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26473,19 +26473,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-633199.3825984076</v>
+        <v>-633199.3825984077</v>
       </c>
       <c r="C6" t="n">
-        <v>-43231.50338386308</v>
+        <v>-43231.50338386311</v>
       </c>
       <c r="D6" t="n">
-        <v>-43231.50338386305</v>
+        <v>-43231.50338386303</v>
       </c>
       <c r="E6" t="n">
-        <v>-443807.440143629</v>
+        <v>-443904.8992696013</v>
       </c>
       <c r="F6" t="n">
-        <v>81352.59633326708</v>
+        <v>81255.13720729487</v>
       </c>
       <c r="G6" t="n">
-        <v>81352.59633326708</v>
+        <v>81255.13720729492</v>
       </c>
       <c r="H6" t="n">
-        <v>81352.59633326698</v>
+        <v>81255.13720729492</v>
       </c>
       <c r="I6" t="n">
-        <v>81352.59633326693</v>
+        <v>81255.13720729495</v>
       </c>
       <c r="J6" t="n">
-        <v>-95070.62285932568</v>
+        <v>-95168.08198529811</v>
       </c>
       <c r="K6" t="n">
-        <v>22281.02473849941</v>
+        <v>22262.53100056533</v>
       </c>
       <c r="L6" t="n">
-        <v>52609.03501698771</v>
+        <v>52609.03501698752</v>
       </c>
       <c r="M6" t="n">
-        <v>-71849.07341598271</v>
+        <v>-71849.07341598262</v>
       </c>
       <c r="N6" t="n">
-        <v>62951.94181785449</v>
+        <v>62951.94181785453</v>
       </c>
       <c r="O6" t="n">
-        <v>62951.94181785447</v>
+        <v>62951.9418178545</v>
       </c>
       <c r="P6" t="n">
-        <v>18789.33651500873</v>
+        <v>18789.33651500888</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26741,28 +26741,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108345</v>
+        <v>12.92863350108368</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>107.9695682400455</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.846512339144709</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.15246306680261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>104.8700911784399</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9205021974250371</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>30.98124159877642</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>114.7845272780717</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>191.626188549371</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>241.3232009322004</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>5.61522150753234</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>187.141774575473</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>9.156410096429539</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37625,7 +37625,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
